--- a/Music.xlsx
+++ b/Music.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML_LAB-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35AAC46D-31F3-4EC3-AB96-651A7C51DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E616088F-48AF-48E0-B5D4-ED1AE6A4F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{42C38EAD-4384-4E53-ACEF-658943386F28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5B156A9-C996-48D0-B7FF-C8A91D3A1838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
-    <t>Age</t>
+    <t xml:space="preserve">Age </t>
   </si>
   <si>
     <t>Gender</t>
@@ -47,7 +47,7 @@
     <t>Genre</t>
   </si>
   <si>
-    <t>ROCK</t>
+    <t>Rock</t>
   </si>
   <si>
     <t>JAZZ</t>
@@ -60,8 +60,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -104,9 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A0B4D1-F064-441E-ACDE-679911CDFDF7}">
-  <dimension ref="A1:C23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B9BCDF-68EA-4DFD-A80A-877AE61660E2}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,13 +466,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -511,7 +522,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -522,7 +533,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -533,7 +544,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -544,7 +555,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -566,7 +577,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -577,7 +588,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -588,18 +599,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -610,7 +621,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
@@ -621,7 +632,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -632,18 +643,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -654,7 +665,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -665,7 +676,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -676,18 +687,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -704,6 +715,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
     </row>
